--- a/result.xlsx
+++ b/result.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -113,7 +113,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -435,22 +435,22 @@
   <dimension ref="A1:AJ10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.125" defaultRowHeight="12.75"/>
   <cols>
-    <col width="27.6640625" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
-    <col width="9.109375" customWidth="1" style="6" min="2" max="2"/>
-    <col width="9.109375" customWidth="1" style="1" min="3" max="3"/>
-    <col width="12.6640625" customWidth="1" style="1" min="4" max="4"/>
-    <col width="9.109375" customWidth="1" style="1" min="5" max="16384"/>
+    <col width="27.625" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
+    <col width="9.125" customWidth="1" style="6" min="2" max="2"/>
+    <col width="9.125" customWidth="1" style="1" min="3" max="3"/>
+    <col width="12.625" customWidth="1" style="1" min="4" max="4"/>
+    <col width="9.125" customWidth="1" style="1" min="5" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="70.8" customHeight="1">
+    <row r="1" ht="70.90000000000001" customHeight="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Company Name</t>
@@ -724,7 +724,7 @@
         <v>6</v>
       </c>
       <c r="U6" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
